--- a/import_csv_format.xlsx
+++ b/import_csv_format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
   <si>
     <t xml:space="preserve">Dato</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">LectureItem4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-19-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-26-04</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
     <numFmt numFmtId="166" formatCode="HH:MM"/>
     <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,12 +105,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +166,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,10 +187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,6 +412,128 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>43955</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>44169</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
